--- a/Report_03/kadai14-1.xlsx
+++ b/Report_03/kadai14-1.xlsx
@@ -8,15 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daichi\Git\simulation\Report_03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AED8333-2CCB-4745-8442-A876C7B98A78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60245094-53BB-47D4-BACD-A69E83CC5185}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="p=0.5" sheetId="1" r:id="rId1"/>
     <sheet name="p=0.7" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1362,7 +1370,7 @@
             </c:spPr>
           </c:marker>
           <c:trendline>
-            <c:name>y = 0.16x + 2.02</c:name>
+            <c:name>y = 68.29x - 59105.01</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -1377,7 +1385,7 @@
             <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
-            <c:name>y = 0.00x^2 + 0.17x - 2.65</c:name>
+            <c:name>y = 0.01x^2 + 0.27x - 160.23</c:name>
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
@@ -1869,9 +1877,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4864799939719413E-2"/>
-          <c:y val="7.2442734430923403E-2"/>
-          <c:w val="0.29132528658817625"/>
+          <c:x val="0.12633789196816089"/>
+          <c:y val="7.2442715789651738E-2"/>
+          <c:w val="0.30930991370757221"/>
           <c:h val="0.21673076933844812"/>
         </c:manualLayout>
       </c:layout>
@@ -3437,9 +3445,9 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3447,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>100</v>
       </c>
@@ -3455,7 +3463,7 @@
         <v>15.523884000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>200</v>
       </c>
@@ -3463,7 +3471,7 @@
         <v>32.598990999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>300</v>
       </c>
@@ -3471,7 +3479,7 @@
         <v>47.586103999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>400</v>
       </c>
@@ -3479,7 +3487,7 @@
         <v>61.323219000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>500</v>
       </c>
@@ -3487,7 +3495,7 @@
         <v>78.533023999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>600</v>
       </c>
@@ -3495,7 +3503,7 @@
         <v>98.516328999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>700</v>
       </c>
@@ -3503,7 +3511,7 @@
         <v>116.542794</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>800</v>
       </c>
@@ -3511,7 +3519,7 @@
         <v>131.29991999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>900</v>
       </c>
@@ -3519,7 +3527,7 @@
         <v>154.41456700000001</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -3527,7 +3535,7 @@
         <v>147.93435700000001</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -3535,7 +3543,7 @@
         <v>189.35753500000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -3543,7 +3551,7 @@
         <v>169.97778299999999</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -3551,7 +3559,7 @@
         <v>209.62366599999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -3559,7 +3567,7 @@
         <v>226.60575900000001</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -3567,7 +3575,7 @@
         <v>253.67026000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -3575,7 +3583,7 @@
         <v>268.83256</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -3583,7 +3591,7 @@
         <v>279.68924900000002</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -3591,7 +3599,7 @@
         <v>277.34343000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -3599,7 +3607,7 @@
         <v>345.26980900000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -3607,7 +3615,7 @@
         <v>333.73119000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -3615,7 +3623,7 @@
         <v>355.947362</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -3623,7 +3631,7 @@
         <v>345.88374499999998</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -3631,7 +3639,7 @@
         <v>421.43696499999999</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -3639,7 +3647,7 @@
         <v>375.91949499999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -3647,7 +3655,7 @@
         <v>375.62136299999997</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -3655,7 +3663,7 @@
         <v>404.48861799999997</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -3663,7 +3671,7 @@
         <v>431.48622699999999</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -3671,7 +3679,7 @@
         <v>508.233071</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -3679,7 +3687,7 @@
         <v>448.49949299999997</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -3687,7 +3695,7 @@
         <v>495.61617699999999</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3100</v>
       </c>
@@ -3695,7 +3703,7 @@
         <v>514.78551600000003</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3200</v>
       </c>
@@ -3703,7 +3711,7 @@
         <v>524.80724399999997</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3300</v>
       </c>
@@ -3711,7 +3719,7 @@
         <v>617.59215099999994</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3400</v>
       </c>
@@ -3719,7 +3727,7 @@
         <v>595.87930700000004</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3500</v>
       </c>
@@ -3727,7 +3735,7 @@
         <v>519.09471299999996</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3600</v>
       </c>
@@ -3735,7 +3743,7 @@
         <v>614.62179100000003</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3700</v>
       </c>
@@ -3743,7 +3751,7 @@
         <v>568.38748299999997</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3800</v>
       </c>
@@ -3751,7 +3759,7 @@
         <v>560.93680800000004</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3900</v>
       </c>
@@ -3759,7 +3767,7 @@
         <v>695.59282499999995</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -3767,7 +3775,7 @@
         <v>714.93917499999998</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>4100</v>
       </c>
@@ -3775,7 +3783,7 @@
         <v>763.579925</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>4200</v>
       </c>
@@ -3783,7 +3791,7 @@
         <v>718.31294700000001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>4300</v>
       </c>
@@ -3791,7 +3799,7 @@
         <v>626.02055800000005</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>4400</v>
       </c>
@@ -3799,7 +3807,7 @@
         <v>736.293271</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>4500</v>
       </c>
@@ -3807,7 +3815,7 @@
         <v>762.23510099999999</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>4600</v>
       </c>
@@ -3815,7 +3823,7 @@
         <v>957.43056100000001</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>4700</v>
       </c>
@@ -3823,7 +3831,7 @@
         <v>785.78704800000003</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>4800</v>
       </c>
@@ -3831,7 +3839,7 @@
         <v>870.55081299999995</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>4900</v>
       </c>
@@ -3839,7 +3847,7 @@
         <v>784.62657300000001</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>5000</v>
       </c>
@@ -3861,9 +3869,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3871,7 +3879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>100</v>
       </c>
@@ -3879,7 +3887,7 @@
         <v>142.165976</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>200</v>
       </c>
@@ -3887,7 +3895,7 @@
         <v>593.17502000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>300</v>
       </c>
@@ -3895,7 +3903,7 @@
         <v>1258.7306880000001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>400</v>
       </c>
@@ -3903,7 +3911,7 @@
         <v>2102.9490919999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>500</v>
       </c>
@@ -3911,7 +3919,7 @@
         <v>3441.848223</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>600</v>
       </c>
@@ -3919,7 +3927,7 @@
         <v>4922.5047910000003</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>700</v>
       </c>
@@ -3927,7 +3935,7 @@
         <v>6470.5517479999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>800</v>
       </c>
@@ -3935,7 +3943,7 @@
         <v>8636.9613790000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>900</v>
       </c>
@@ -3943,7 +3951,7 @@
         <v>10756.944186999999</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -3951,7 +3959,7 @@
         <v>13503.452524</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -3959,7 +3967,7 @@
         <v>15952.942249</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -3967,7 +3975,7 @@
         <v>19298.156351000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -3975,7 +3983,7 @@
         <v>22748.680558</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -3983,7 +3991,7 @@
         <v>26037.761893999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -3991,7 +3999,7 @@
         <v>29997.782947</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -3999,7 +4007,7 @@
         <v>34773.994758000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -4007,7 +4015,7 @@
         <v>37618.148837000001</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -4015,7 +4023,7 @@
         <v>43880.202171999998</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -4023,7 +4031,7 @@
         <v>49191.500212999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -4031,7 +4039,7 @@
         <v>53010.295644999998</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -4039,7 +4047,7 @@
         <v>59186.863290000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -4047,7 +4055,7 @@
         <v>66203.907598000005</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -4055,7 +4063,7 @@
         <v>70737.132339999996</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -4063,7 +4071,7 @@
         <v>76917.290578</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -4071,7 +4079,7 @@
         <v>84598.294798999996</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -4079,7 +4087,7 @@
         <v>90371.672258000006</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -4087,7 +4095,7 @@
         <v>98693.134990000006</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -4095,7 +4103,7 @@
         <v>105035.206114</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -4103,7 +4111,7 @@
         <v>113112.311136</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -4111,7 +4119,7 @@
         <v>119470.379275</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>3100</v>
       </c>
@@ -4119,7 +4127,7 @@
         <v>128866.982634</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>3200</v>
       </c>
@@ -4127,7 +4135,7 @@
         <v>137326.797915</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>3300</v>
       </c>
@@ -4135,7 +4143,7 @@
         <v>143876.095096</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>3400</v>
       </c>
@@ -4143,7 +4151,7 @@
         <v>153933.56463400001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>3500</v>
       </c>
@@ -4151,7 +4159,7 @@
         <v>164461.058858</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>3600</v>
       </c>
@@ -4159,7 +4167,7 @@
         <v>173508.08893599999</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>3700</v>
       </c>
@@ -4167,7 +4175,7 @@
         <v>181080.46260900001</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>3800</v>
       </c>
@@ -4175,7 +4183,7 @@
         <v>195168.15429400001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>3900</v>
       </c>
@@ -4183,7 +4191,7 @@
         <v>206936.402248</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -4191,7 +4199,7 @@
         <v>217030.99407700001</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>4100</v>
       </c>
@@ -4199,7 +4207,7 @@
         <v>225498.17862300001</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>4200</v>
       </c>
@@ -4207,7 +4215,7 @@
         <v>235310.974709</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>4300</v>
       </c>
@@ -4215,7 +4223,7 @@
         <v>247392.81848799999</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>4400</v>
       </c>
@@ -4223,7 +4231,7 @@
         <v>256796.878872</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>4500</v>
       </c>
@@ -4231,7 +4239,7 @@
         <v>270589.59008599998</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>4600</v>
       </c>
@@ -4239,7 +4247,7 @@
         <v>281514.00633499998</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>4700</v>
       </c>
@@ -4247,7 +4255,7 @@
         <v>300727.621889</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>4800</v>
       </c>
@@ -4255,7 +4263,7 @@
         <v>304325.790645</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>4900</v>
       </c>
@@ -4263,7 +4271,7 @@
         <v>320540.986638</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>5000</v>
       </c>
